--- a/fuzzy_stability_analysis/results/fuz_stability_link/S/correlations_matrixes.xlsx
+++ b/fuzzy_stability_analysis/results/fuz_stability_link/S/correlations_matrixes.xlsx
@@ -20,28 +20,28 @@
     <t>Fuzziness coefficient: 1.5</t>
   </si>
   <si>
-    <t>st_0.4_const_ass</t>
-  </si>
-  <si>
-    <t>st_0.6_const_ass</t>
-  </si>
-  <si>
     <t>st_0.8_const_ass</t>
   </si>
   <si>
     <t>st_1_const_ass</t>
   </si>
   <si>
-    <t>st_0.4_thr_0.5</t>
-  </si>
-  <si>
-    <t>st_0.6_thr_0.5</t>
+    <t>st_1.2_const_ass</t>
+  </si>
+  <si>
+    <t>st_1.4_const_ass</t>
   </si>
   <si>
     <t>st_0.8_thr_0.5</t>
   </si>
   <si>
     <t>st_1_thr_0.5</t>
+  </si>
+  <si>
+    <t>st_1.2_thr_0.5</t>
+  </si>
+  <si>
+    <t>st_1.4_thr_0.5</t>
   </si>
   <si>
     <t>fuz_1.5_entropy</t>
@@ -492,28 +492,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.485</v>
+        <v>-0.647</v>
       </c>
       <c r="C3">
-        <v>-0.577</v>
+        <v>-0.6899999999999999</v>
       </c>
       <c r="D3">
-        <v>-0.647</v>
+        <v>-0.722</v>
       </c>
       <c r="E3">
-        <v>-0.6899999999999999</v>
+        <v>-0.733</v>
       </c>
       <c r="F3">
-        <v>-0.5580000000000001</v>
+        <v>-0.68</v>
       </c>
       <c r="G3">
-        <v>-0.634</v>
+        <v>-0.708</v>
       </c>
       <c r="H3">
-        <v>-0.68</v>
+        <v>-0.729</v>
       </c>
       <c r="I3">
-        <v>-0.708</v>
+        <v>-0.74</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -521,28 +521,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.679</v>
+        <v>0.79</v>
       </c>
       <c r="C4">
-        <v>0.748</v>
+        <v>0.804</v>
       </c>
       <c r="D4">
+        <v>0.8080000000000001</v>
+      </c>
+      <c r="E4">
+        <v>0.796</v>
+      </c>
+      <c r="F4">
         <v>0.79</v>
       </c>
-      <c r="E4">
-        <v>0.804</v>
-      </c>
-      <c r="F4">
-        <v>0.734</v>
-      </c>
       <c r="G4">
-        <v>0.775</v>
+        <v>0.794</v>
       </c>
       <c r="H4">
         <v>0.79</v>
       </c>
       <c r="I4">
-        <v>0.794</v>
+        <v>0.782</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -581,28 +581,28 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.314</v>
+        <v>-0.437</v>
       </c>
       <c r="C8">
-        <v>-0.375</v>
+        <v>-0.486</v>
       </c>
       <c r="D8">
-        <v>-0.437</v>
+        <v>-0.536</v>
       </c>
       <c r="E8">
-        <v>-0.486</v>
+        <v>-0.569</v>
       </c>
       <c r="F8">
-        <v>-0.373</v>
+        <v>-0.478</v>
       </c>
       <c r="G8">
-        <v>-0.433</v>
+        <v>-0.512</v>
       </c>
       <c r="H8">
-        <v>-0.478</v>
+        <v>-0.548</v>
       </c>
       <c r="I8">
-        <v>-0.512</v>
+        <v>-0.577</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -610,28 +610,28 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.434</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="C9">
-        <v>0.499</v>
+        <v>0.601</v>
       </c>
       <c r="D9">
-        <v>0.5600000000000001</v>
+        <v>0.64</v>
       </c>
       <c r="E9">
-        <v>0.601</v>
+        <v>0.662</v>
       </c>
       <c r="F9">
-        <v>0.496</v>
+        <v>0.594</v>
       </c>
       <c r="G9">
-        <v>0.552</v>
+        <v>0.621</v>
       </c>
       <c r="H9">
-        <v>0.594</v>
+        <v>0.649</v>
       </c>
       <c r="I9">
-        <v>0.621</v>
+        <v>0.668</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -670,28 +670,28 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>-0.223</v>
+        <v>-0.309</v>
       </c>
       <c r="C13">
-        <v>-0.26</v>
+        <v>-0.357</v>
       </c>
       <c r="D13">
-        <v>-0.309</v>
+        <v>-0.41</v>
       </c>
       <c r="E13">
-        <v>-0.357</v>
+        <v>-0.452</v>
       </c>
       <c r="F13">
-        <v>-0.272</v>
+        <v>-0.354</v>
       </c>
       <c r="G13">
-        <v>-0.317</v>
+        <v>-0.389</v>
       </c>
       <c r="H13">
-        <v>-0.354</v>
+        <v>-0.427</v>
       </c>
       <c r="I13">
-        <v>-0.389</v>
+        <v>-0.463</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -699,28 +699,28 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.3</v>
+        <v>0.403</v>
       </c>
       <c r="C14">
-        <v>0.346</v>
+        <v>0.449</v>
       </c>
       <c r="D14">
-        <v>0.403</v>
+        <v>0.5</v>
       </c>
       <c r="E14">
-        <v>0.449</v>
+        <v>0.536</v>
       </c>
       <c r="F14">
-        <v>0.356</v>
+        <v>0.447</v>
       </c>
       <c r="G14">
-        <v>0.405</v>
+        <v>0.479</v>
       </c>
       <c r="H14">
-        <v>0.447</v>
+        <v>0.516</v>
       </c>
       <c r="I14">
-        <v>0.479</v>
+        <v>0.546</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -759,28 +759,28 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>-0.173</v>
+        <v>-0.25</v>
       </c>
       <c r="C18">
-        <v>-0.203</v>
+        <v>-0.299</v>
       </c>
       <c r="D18">
-        <v>-0.25</v>
+        <v>-0.357</v>
       </c>
       <c r="E18">
-        <v>-0.299</v>
+        <v>-0.403</v>
       </c>
       <c r="F18">
-        <v>-0.23</v>
+        <v>-0.312</v>
       </c>
       <c r="G18">
-        <v>-0.275</v>
+        <v>-0.348</v>
       </c>
       <c r="H18">
-        <v>-0.312</v>
+        <v>-0.387</v>
       </c>
       <c r="I18">
-        <v>-0.348</v>
+        <v>-0.424</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -788,28 +788,28 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.224</v>
+        <v>0.316</v>
       </c>
       <c r="C19">
-        <v>0.262</v>
+        <v>0.364</v>
       </c>
       <c r="D19">
-        <v>0.316</v>
+        <v>0.42</v>
       </c>
       <c r="E19">
-        <v>0.364</v>
+        <v>0.463</v>
       </c>
       <c r="F19">
-        <v>0.284</v>
+        <v>0.376</v>
       </c>
       <c r="G19">
-        <v>0.335</v>
+        <v>0.409</v>
       </c>
       <c r="H19">
-        <v>0.376</v>
+        <v>0.446</v>
       </c>
       <c r="I19">
-        <v>0.409</v>
+        <v>0.479</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -848,28 +848,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.156</v>
+        <v>-0.253</v>
       </c>
       <c r="C23">
-        <v>-0.199</v>
+        <v>-0.306</v>
       </c>
       <c r="D23">
-        <v>-0.253</v>
+        <v>-0.365</v>
       </c>
       <c r="E23">
-        <v>-0.306</v>
+        <v>-0.411</v>
       </c>
       <c r="F23">
-        <v>-0.23</v>
+        <v>-0.336</v>
       </c>
       <c r="G23">
-        <v>-0.292</v>
+        <v>-0.373</v>
       </c>
       <c r="H23">
-        <v>-0.336</v>
+        <v>-0.409</v>
       </c>
       <c r="I23">
-        <v>-0.373</v>
+        <v>-0.443</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -877,28 +877,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.18</v>
+        <v>0.281</v>
       </c>
       <c r="C24">
-        <v>0.225</v>
+        <v>0.33</v>
       </c>
       <c r="D24">
-        <v>0.281</v>
+        <v>0.384</v>
       </c>
       <c r="E24">
-        <v>0.33</v>
+        <v>0.427</v>
       </c>
       <c r="F24">
-        <v>0.252</v>
+        <v>0.358</v>
       </c>
       <c r="G24">
-        <v>0.316</v>
+        <v>0.389</v>
       </c>
       <c r="H24">
-        <v>0.358</v>
+        <v>0.416</v>
       </c>
       <c r="I24">
-        <v>0.389</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -937,28 +937,28 @@
         <v>24</v>
       </c>
       <c r="B28">
-        <v>-0.16</v>
+        <v>-0.272</v>
       </c>
       <c r="C28">
-        <v>-0.213</v>
+        <v>-0.325</v>
       </c>
       <c r="D28">
-        <v>-0.272</v>
+        <v>-0.38</v>
       </c>
       <c r="E28">
-        <v>-0.325</v>
+        <v>-0.423</v>
       </c>
       <c r="F28">
-        <v>-0.244</v>
+        <v>-0.363</v>
       </c>
       <c r="G28">
-        <v>-0.317</v>
+        <v>-0.397</v>
       </c>
       <c r="H28">
-        <v>-0.363</v>
+        <v>-0.426</v>
       </c>
       <c r="I28">
-        <v>-0.397</v>
+        <v>-0.454</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -966,28 +966,28 @@
         <v>25</v>
       </c>
       <c r="B29">
-        <v>0.159</v>
+        <v>0.263</v>
       </c>
       <c r="C29">
-        <v>0.21</v>
+        <v>0.304</v>
       </c>
       <c r="D29">
-        <v>0.263</v>
+        <v>0.347</v>
       </c>
       <c r="E29">
-        <v>0.304</v>
+        <v>0.382</v>
       </c>
       <c r="F29">
-        <v>0.233</v>
+        <v>0.341</v>
       </c>
       <c r="G29">
-        <v>0.307</v>
+        <v>0.362</v>
       </c>
       <c r="H29">
-        <v>0.341</v>
+        <v>0.371</v>
       </c>
       <c r="I29">
-        <v>0.362</v>
+        <v>0.39</v>
       </c>
     </row>
   </sheetData>
@@ -1039,28 +1039,28 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.41</v>
+        <v>-0.589</v>
       </c>
       <c r="C3">
-        <v>-0.53</v>
+        <v>-0.584</v>
       </c>
       <c r="D3">
-        <v>-0.589</v>
+        <v>-0.578</v>
       </c>
       <c r="E3">
-        <v>-0.584</v>
+        <v>-0.555</v>
       </c>
       <c r="F3">
-        <v>-0.189</v>
+        <v>-0.35</v>
       </c>
       <c r="G3">
-        <v>-0.274</v>
+        <v>-0.397</v>
       </c>
       <c r="H3">
-        <v>-0.35</v>
+        <v>-0.439</v>
       </c>
       <c r="I3">
-        <v>-0.397</v>
+        <v>-0.468</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1068,28 +1068,28 @@
         <v>10</v>
       </c>
       <c r="B4">
-        <v>0.419</v>
+        <v>0.608</v>
       </c>
       <c r="C4">
-        <v>0.543</v>
+        <v>0.603</v>
       </c>
       <c r="D4">
-        <v>0.608</v>
+        <v>0.597</v>
       </c>
       <c r="E4">
-        <v>0.603</v>
+        <v>0.573</v>
       </c>
       <c r="F4">
-        <v>0.213</v>
+        <v>0.375</v>
       </c>
       <c r="G4">
-        <v>0.298</v>
+        <v>0.424</v>
       </c>
       <c r="H4">
-        <v>0.375</v>
+        <v>0.466</v>
       </c>
       <c r="I4">
-        <v>0.424</v>
+        <v>0.494</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1128,28 +1128,28 @@
         <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.352</v>
+        <v>-0.515</v>
       </c>
       <c r="C8">
-        <v>-0.46</v>
+        <v>-0.527</v>
       </c>
       <c r="D8">
-        <v>-0.515</v>
+        <v>-0.528</v>
       </c>
       <c r="E8">
-        <v>-0.527</v>
+        <v>-0.509</v>
       </c>
       <c r="F8">
-        <v>-0.099</v>
+        <v>-0.265</v>
       </c>
       <c r="G8">
-        <v>-0.185</v>
+        <v>-0.319</v>
       </c>
       <c r="H8">
-        <v>-0.265</v>
+        <v>-0.367</v>
       </c>
       <c r="I8">
-        <v>-0.319</v>
+        <v>-0.404</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -1157,28 +1157,28 @@
         <v>13</v>
       </c>
       <c r="B9">
-        <v>0.376</v>
+        <v>0.55</v>
       </c>
       <c r="C9">
-        <v>0.488</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="D9">
-        <v>0.55</v>
+        <v>0.5629999999999999</v>
       </c>
       <c r="E9">
-        <v>0.5629999999999999</v>
+        <v>0.544</v>
       </c>
       <c r="F9">
-        <v>0.127</v>
+        <v>0.3</v>
       </c>
       <c r="G9">
-        <v>0.216</v>
+        <v>0.357</v>
       </c>
       <c r="H9">
-        <v>0.3</v>
+        <v>0.407</v>
       </c>
       <c r="I9">
-        <v>0.357</v>
+        <v>0.445</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -1217,28 +1217,28 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>-0.277</v>
+        <v>-0.458</v>
       </c>
       <c r="C13">
-        <v>-0.392</v>
+        <v>-0.482</v>
       </c>
       <c r="D13">
-        <v>-0.458</v>
+        <v>-0.488</v>
       </c>
       <c r="E13">
-        <v>-0.482</v>
+        <v>-0.473</v>
       </c>
       <c r="F13">
-        <v>-0.039</v>
+        <v>-0.207</v>
       </c>
       <c r="G13">
-        <v>-0.125</v>
+        <v>-0.264</v>
       </c>
       <c r="H13">
-        <v>-0.207</v>
+        <v>-0.316</v>
       </c>
       <c r="I13">
-        <v>-0.264</v>
+        <v>-0.359</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -1246,28 +1246,28 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.309</v>
+        <v>0.495</v>
       </c>
       <c r="C14">
-        <v>0.424</v>
+        <v>0.522</v>
       </c>
       <c r="D14">
-        <v>0.495</v>
+        <v>0.527</v>
       </c>
       <c r="E14">
-        <v>0.522</v>
+        <v>0.514</v>
       </c>
       <c r="F14">
-        <v>0.044</v>
+        <v>0.226</v>
       </c>
       <c r="G14">
-        <v>0.136</v>
+        <v>0.289</v>
       </c>
       <c r="H14">
-        <v>0.226</v>
+        <v>0.345</v>
       </c>
       <c r="I14">
-        <v>0.289</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -1306,28 +1306,28 @@
         <v>18</v>
       </c>
       <c r="B18">
-        <v>-0.236</v>
+        <v>-0.446</v>
       </c>
       <c r="C18">
-        <v>-0.367</v>
+        <v>-0.473</v>
       </c>
       <c r="D18">
-        <v>-0.446</v>
+        <v>-0.482</v>
       </c>
       <c r="E18">
-        <v>-0.473</v>
+        <v>-0.467</v>
       </c>
       <c r="F18">
-        <v>-0.032</v>
+        <v>-0.199</v>
       </c>
       <c r="G18">
-        <v>-0.116</v>
+        <v>-0.255</v>
       </c>
       <c r="H18">
-        <v>-0.199</v>
+        <v>-0.309</v>
       </c>
       <c r="I18">
-        <v>-0.255</v>
+        <v>-0.354</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -1335,28 +1335,28 @@
         <v>19</v>
       </c>
       <c r="B19">
-        <v>0.271</v>
+        <v>0.474</v>
       </c>
       <c r="C19">
-        <v>0.395</v>
+        <v>0.507</v>
       </c>
       <c r="D19">
-        <v>0.474</v>
+        <v>0.516</v>
       </c>
       <c r="E19">
         <v>0.507</v>
       </c>
       <c r="F19">
-        <v>-0.008999999999999999</v>
+        <v>0.178</v>
       </c>
       <c r="G19">
-        <v>0.08500000000000001</v>
+        <v>0.245</v>
       </c>
       <c r="H19">
-        <v>0.178</v>
+        <v>0.308</v>
       </c>
       <c r="I19">
-        <v>0.245</v>
+        <v>0.365</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -1395,28 +1395,28 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>-0.255</v>
+        <v>-0.479</v>
       </c>
       <c r="C23">
-        <v>-0.397</v>
+        <v>-0.496</v>
       </c>
       <c r="D23">
-        <v>-0.479</v>
+        <v>-0.504</v>
       </c>
       <c r="E23">
-        <v>-0.496</v>
+        <v>-0.488</v>
       </c>
       <c r="F23">
-        <v>-0.074</v>
+        <v>-0.23</v>
       </c>
       <c r="G23">
-        <v>-0.153</v>
+        <v>-0.281</v>
       </c>
       <c r="H23">
-        <v>-0.23</v>
+        <v>-0.332</v>
       </c>
       <c r="I23">
-        <v>-0.281</v>
+        <v>-0.379</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1424,28 +1424,28 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.274</v>
+        <v>0.464</v>
       </c>
       <c r="C24">
-        <v>0.389</v>
+        <v>0.5</v>
       </c>
       <c r="D24">
-        <v>0.464</v>
+        <v>0.512</v>
       </c>
       <c r="E24">
-        <v>0.5</v>
+        <v>0.51</v>
       </c>
       <c r="F24">
-        <v>-0.059</v>
+        <v>0.128</v>
       </c>
       <c r="G24">
-        <v>0.032</v>
+        <v>0.2</v>
       </c>
       <c r="H24">
-        <v>0.128</v>
+        <v>0.269</v>
       </c>
       <c r="I24">
-        <v>0.2</v>
+        <v>0.338</v>
       </c>
     </row>
     <row r="26" spans="1:9">
@@ -1484,28 +1484,28 @@
         <v>24</v>
       </c>
       <c r="B28">
-        <v>-0.307</v>
+        <v>-0.517</v>
       </c>
       <c r="C28">
-        <v>-0.449</v>
+        <v>-0.51</v>
       </c>
       <c r="D28">
-        <v>-0.517</v>
+        <v>-0.514</v>
       </c>
       <c r="E28">
-        <v>-0.51</v>
+        <v>-0.501</v>
       </c>
       <c r="F28">
-        <v>-0.126</v>
+        <v>-0.264</v>
       </c>
       <c r="G28">
-        <v>-0.199</v>
+        <v>-0.299</v>
       </c>
       <c r="H28">
-        <v>-0.264</v>
+        <v>-0.34</v>
       </c>
       <c r="I28">
-        <v>-0.299</v>
+        <v>-0.385</v>
       </c>
     </row>
     <row r="29" spans="1:9">
@@ -1513,28 +1513,28 @@
         <v>25</v>
       </c>
       <c r="B29">
-        <v>0.268</v>
+        <v>0.402</v>
       </c>
       <c r="C29">
-        <v>0.35</v>
+        <v>0.444</v>
       </c>
       <c r="D29">
-        <v>0.402</v>
+        <v>0.46</v>
       </c>
       <c r="E29">
-        <v>0.444</v>
+        <v>0.468</v>
       </c>
       <c r="F29">
-        <v>-0.144</v>
+        <v>0.023</v>
       </c>
       <c r="G29">
-        <v>-0.064</v>
+        <v>0.098</v>
       </c>
       <c r="H29">
-        <v>0.023</v>
+        <v>0.173</v>
       </c>
       <c r="I29">
-        <v>0.098</v>
+        <v>0.255</v>
       </c>
     </row>
   </sheetData>
